--- a/CCUS_NW_SE_Europe-Emitters.xlsx
+++ b/CCUS_NW_SE_Europe-Emitters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2a688f44e2bc8a/Documenten/MSc TOM/Assignments/SCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9D7553BC16AB452A4BC5500662B20D75597DBED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1251AEC1-C5E9-41F7-ACD1-6CD9F6CC3DBC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9D7553BC16AB452A4BC5500662B20D75597DBED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B2632B-B020-4C93-94C3-E777B0FC47BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5573,10 +5573,10 @@
   </sheetPr>
   <dimension ref="A1:O768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A58" sqref="A58"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
